--- a/reply_messages.xlsx
+++ b/reply_messages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinci/Documents/Python/JujutsuKaisenPedia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinci/Documents/Python/JujutsuKaisenHeroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BA47D5-2268-214C-9A1F-7B76EEB5BDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F1E5E-D39C-984D-946D-A41A04745DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{EA225A2E-8754-C04F-A899-5459F934F877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EA225A2E-8754-C04F-A899-5459F934F877}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="577">
   <si>
     <t>message1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,9 +399,6 @@
     <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://lh3.googleusercontent.com/proxy/9DiF2KrB-q8tgO-7HxsIhCk2m4ZYL0E7JF1CFBFia2vKizfzCpIijOp9vh39pM14q8b4rRnwj21dgIyYwwVus3_XNfuRupUaCpmTxEcxwTzGnEHj6W1O7Ab3JDQXt1wf", "title": "漏瑚", "text": "未被登錄的特級咒靈，源於大地，咒術「火礫山」主要是火焰攻擊。其實力被假夏油評估為宿儺8-9根手指的強度，但本人與宿儺交戰", "actions": [ { "type": "postback", "label": "基本資料", "text": "漏瑚的基本資料", "data": "name=漏瑚&amp;action=info" }, { "type": "postback", "label": "相關招式", "text": "漏瑚的相關招式", "data": "name=漏瑚&amp;action=skill" } ] } }</t>
   </si>
   <si>
-    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://inews.gtimg.com/newsapp_bt/0/13172197500/641", "title": "花御", "text": "未被登錄的特級咒靈，源於森林，咒術主要是植物攻擊。被比喻為「咒靈中的精靈」。說著不明的語言，但是聲音傳進腦中卻能讓人了解", "actions": [ { "type": "postback", "label": "基本資料", "text": "花御的基本資料", "data": "name=花御&amp;action=info" } ] } }</t>
-  </si>
-  <si>
     <t>{ "type": "text", "text": "基本資料\n本名：真人（まひと）(Mahito)\n別號：補丁臉、靈魂之鏡\n髮色：藍髮、紫髮\n瞳色：藍瞳（左眼），灰瞳 / 黑瞳（右眼）\n身高：180cm以上，大約184-185cm左右\n生日：按官方小說中的暗示可能在梅雨季（6-7月）\n聲優：島崎信長\n萌點：亡靈、殺人狂、人渣、反差萌、顏藝、無性、三馬尾、異色瞳、傷疤、變態、孩子氣、嘲諷臉、惡德、不憫\n出身地區：日本\n活動範圍：日本\n所屬團體：咒靈（特級）\n\n親屬或相關人\n同黨：偽夏油、漏瑚、花御\n宿敵：虎杖悠仁、七海建人" }</t>
   </si>
   <si>
@@ -1628,6 +1625,151 @@
   </si>
   <si>
     <t>wallpaper200</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://inews.gtimg.com/newsapp_bt/0/13172197500/641", "title": "花御", "text": "未被登錄的特級咒靈，源於森林，咒術主要是植物攻擊。被比喻為「咒靈中的精靈」。說著不明的語言，但是聲音傳進腦中卻能讓人了解", "actions": [ { "type": "postback", "label": "基本資料", "text": "花御的基本資料", "data": "name=花御&amp;action=info" }, { "type": "postback", "label": "相關招式", "text": "花御的相關招式", "data": "name=花御&amp;action=skill" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0EuiS3-rjAf_dLL709kAXhSQWRCHTNMeRbYP-1BJYMTvZgf3iAJqpEIJLzDJEqsWMcb8&amp;usqp=CAU", "title": "陀艮", "text": "未被登錄的特級咒靈，源於海洋，咒術主要是水流攻擊。登場初期時一直沒有公布其名，外型是全身紅色如水母圓胖並用雨衣遮掩全身，", "actions": [ { "type": "postback", "label": "基本資料", "text": "陀艮的基本資料", "data": "name=陀艮&amp;action=info" }, { "type": "postback", "label": "相關招式", "text": "陀艮的相關招式", "data": "name=陀艮&amp;action=skill" } ] } }</t>
+  </si>
+  <si>
+    <t>陀艮</t>
+  </si>
+  <si>
+    <t>血塗</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "領域展開「朵頤光海」\n具體能力未知，在故事中未使用過，僅於公式書公布領域名字。" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "領域展開「蕩蘊平線」\n形象為一陽光海灘，陀艮能從水中召喚出魚類式神攻擊。" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：血塗（けちず）(Kechizu)\n別號：三弟\n聲優：山口勝平\n萌點：亡靈、混血兒、血液操控、人外、弟弟、兄控、毒體\n出身地區：日本\n活動範圍：日本\n所屬團體：咒胎九相圖\n\n親屬或相關人\n製造者：加茂憲倫\n哥哥：脹相、壞相" }</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://in-the-water.com/wp-content/uploads/2021/02/スクリーンショット-2021-02-06-14.26.46.jpg", "title": "禪院直毘人", "text": "咒術界御三家禪院家的第26代當家，特別一級咒術師，71歲，穿著和服。非常喜歡喝酒，在任務中也會喝酒偷懶，但他的實力卻有著", "actions": [ { "type": "postback", "label": "基本資料", "text": "禪院直毘人的基本資料", "data": "name=禪院直毘人&amp;action=info" }, { "type": "postback", "label": "相關招式", "text": "禪院直毘人的相關招式", "data": "name=禪院直毘人&amp;action=skill" } ] } }</t>
+  </si>
+  <si>
+    <t>禪院直毘人</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：禪院（ぜんいん） 直毘人（なおびと）(Zen'in Naobito)\n別號：直毗人家主、flash老頭、醉酒老頭\n髮色：白髮\n瞳色：黑瞳\n身高：170以上\n年齡：71歲\n聲優：中田讓治\n萌點：組織領導人、父親、長者、嗜酒、酒品差、降維打擊\n出身地區：日本\n活動範圍：日本\n所屬團體：禪院家\n\n親屬或相關人\n兒子：禪院直哉" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "術式「投影咒法」\n將一秒分成二十四段以自己的視野做視場角追蹤事先在視場角內預設的動作，術式發動後被手碰到的目標必須在1/24秒內做出反應，如果失敗，動作就會有磕絆，風險是預設的動作無法中途修改，預設太過偏離物理法則或軌道的動作，自己也會硬直。但還是憑排幀天賦和時間感覺，讓發動速度僅次五條。" }</t>
+  </si>
+  <si>
+    <t>伏黑甚爾</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://p6-tt.byteimg.com/origin/pgc-image/fc53d37a1fc1465a8198b48f7a8bff80?from=pc", "title": "伏黑甚爾", "text": "伏黑惠的父親，伏黑津美紀的繼父。外號是「術師殺手」，本名禪院甚爾。他以徹底喪失咒力為代價，獲得了遠超凡人的肉體，反而具備", "actions": [ { "type": "postback", "label": "基本資料", "text": "伏黑甚爾的基本資料", "data": "name=伏黑甚爾&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：伏黒（ふしぐろ） 甚爾（とうじ）(Fushiguro Tōji)\n別號：天與暴君、爹咪、術師殺手\n髮色：黑髮\n瞳色：黑瞳\n生日：12月31日\n星座：摩羯座\n萌點：傷疤、狂氣、拜金、敗家、人夫、父親\n出身地區：日本\n活動範圍：日本\n所屬團體：禪院家→伏黑家→詛咒師\n\n親屬或相關人\n兒子：伏黑惠" }</t>
+  </si>
+  <si>
+    <t>九十九由基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://nimg.ws.126.net/?url=http://dingyue.ws.126.net/2021/0309/02d20cfcj00qpozqa002mc000z700qdm.jpg&amp;thumbnail=650x2147483647&amp;quality=80&amp;type=jpg", "title": "九十九由基", "text": "特級咒術師之一。東堂的師父，身材高大的女性。其他人對她的評價是「身為特級卻全然不接任務，在國外遊手好閒，很不可靠。」，認", "actions": [ { "type": "postback", "label": "基本資料", "text": "九十九由基的基本資料", "data": "name=九十九由基&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：九十九（つくも） 由基（ゆき）(Tsukumo Yuki)\n別號：99姐、萬惡之源\n髮色：金發\n瞳色：棕瞳\n身高：180cm左右\n聲優：日高范子\n萌點：老師、旅行者、長身、禦姐、金發、熟女、安產型\n出身地區：日本\n活動範圍：全世界\n所屬團體：自由職業咒術師\n\n親屬或相關人\n徒弟：東堂葵\n受其思想影響：夏油傑" }</t>
+  </si>
+  <si>
+    <t>天元</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://p2.itc.cn/images01/20210330/36ba09dc53c94f1f96a60d1cf7dff44d.png", "title": "天元", "text": "擁有不死術式的全知的咒術師。夏油將他比喻成樹，雖然不會死但是會衰老。在咒術高專設有結界，天元的結界每天都會改變配置，結界", "actions": [ { "type": "postback", "label": "基本資料", "text": "天元的基本資料", "data": "name=天元&amp;action=info" }, { "type": "postback", "label": "相關招式", "text": "天元的相關招式", "data": "name=天元&amp;action=skill" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：天元（てんげん）(Tengen)\n別號：天元大人\n萌點：人外、隔空取物、不死之身\n出身地區：日本\n活動範圍：日本\n所屬團體：咒術高專\n\n親屬或相關人\n星漿體：天內理子\n被委託：五條悟、夏油傑" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "術式「不死術式」\n當天元老化到一定程度後，術式就會試圖重造肉體，到了那時，天元將脫離人類，成為更高次元的存在，而天元將失去意識，變得不再是天元，最壞的情況，甚至可能變成人類的敵人，所以每五百年，天元會和適合的人類「星漿體」同化，刷新肉體情報，肉體煥然一新後，術式效果也會重回原點。" }</t>
+  </si>
+  <si>
+    <t>羂索</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：羂索\n別號：腦花、假夏油\n髮色：黑髮\n瞳色：黑瞳\n年齡：估計150歲以上\n聲優：櫻井孝宏\n萌點：腹黑、附身、傷疤、亡靈、惡意賣萌、顏藝\n出身地區：日本\n活動範圍：日本\n所屬團體：咒靈（級別未知）\n\n親屬或相關人\n附身對象：加茂憲倫、夏油傑\n咒靈同黨：漏瑚、真人" }</t>
+  </si>
+  <si>
+    <t>裏梅</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://i.ytimg.com/vi/udNVns3d2I8/maxresdefault.jpg", "title": "裏梅", "text": "娃娃頭和尚造型的詛咒師，性別不詳。負責介紹組屋等詛咒師協助夏油和真人等特級咒靈的人。稱呼宿儺為宿儺大人，是宿儺千年前的部", "actions": [ { "type": "postback", "label": "基本資料", "text": "裏梅的基本資料", "data": "name=裏梅&amp;action=info" }, { "type": "postback", "label": "相關招式", "text": "裏梅的相關招式", "data": "name=裏梅&amp;action=skill" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：裏梅（うらうめ）(Uraume)\n別號：酒肉和尚、白髮小孩\n髮色：白髮、紅髮\n瞳色：紫瞳\n年齡：1000歲以上\n萌點：短髮、冰能力、雙色髮\n所屬團體 詛咒師（偽夏油協力者）\n\n親屬或相關人\n？ ：兩面宿儺\n協力：偽夏油" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "術式「冰凝咒法」" }</t>
+  </si>
+  <si>
+    <t>虎杖倭助</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://i.ppfocus.com/2020/11/a25441c2a5.jpg", "title": "虎杖倭助", "text": "悠仁的爺爺，於故事開頭去世。因為虎杖很強，所以希望他能夠至少在眾人的擁護下死去。希望兒子仁能夠過自己想要的生活，但是卻反", "actions": [ { "type": "postback", "label": "基本資料", "text": "虎杖倭助的基本資料", "data": "name=虎杖倭助&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://pbs.twimg.com/media/Ell0GUhVcAA7ftq.jpg", "title": "伏黑津美紀", "text": "伏黑惠的義姐，沒有任何術式，因為曾經經過八十八橋而被詛咒昏迷，已甦醒。亦被捲入「死滅迴游」中。", "actions": [ { "type": "postback", "label": "基本資料", "text": "伏黑津美紀的基本資料", "data": "name=伏黑津美紀&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>伏黑津美紀</t>
+  </si>
+  <si>
+    <t>高田</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://nijimen.net/wp-content/uploads/2021/04/r1280x720l-1.jpg", "title": "高田", "text": "高個子偶像。東堂為了她在參加東京都咒術交流會期間而來此排隊進行個別握手會。真依後來也加入了排隊，體驗結束似乎也喜歡上她。", "actions": [ { "type": "postback", "label": "基本資料", "text": "高田的基本資料", "data": "name=高田&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：虎杖（いたどり） 倭助（わすけ）(Itadori Wasuke)\n別號：爺爺\n髮色：白髮\n瞳色：棕瞳\n聲優：千葉繁\n萌點：爺爺、長者、病弱、傲嬌\n出身地區：宮城縣仙台市\n活動範圍：仙台市\n\n親屬或相關人\n孫子：虎杖悠仁" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：伏黒（ふしぐろ） 津美紀（つみき）(Fushiguro Tsumiki)\n別號：津美紀、伏黑姐\n髮色：棕黑髮\n瞳色：深棕瞳\n聲優：早見沙織\n萌點：姐姐、馬尾、溫柔\n出身地區：日本\n活動範圍：日本\n所屬團體：埼玉縣浦見東中學\n\n親屬或相關人\n無血緣的弟弟：伏黑惠" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：高田（たかだ）(Takada)\n別號：小高田、放飛小高\n髮色：黑髮\n瞳色：棕黃瞳\n身高：180cm\n聲優：黑澤朋世\n萌點：偶像、雙馬尾、長身、電波系\n出身地區：日本\n活動範圍：日本" }</t>
+  </si>
+  <si>
+    <t>加茂憲倫</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTi-AskUDznxe7jEIyxgt_oExQnIxPpQGlvfrrPHDttfuZ-Z0K1kGmAOy01cCf6BXcXPpA&amp;usqp=CAU", "title": "加茂憲倫", "text": "以術式奪取了被五條殺死了的夏油遺體的咒術師，真實身份為150多年前被稱為「御三家污點」的最惡咒術師加茂憲倫。大正時代，在", "actions": [ { "type": "postback", "label": "基本資料", "text": "加茂憲倫的基本資料", "data": "name=加茂憲倫&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：加茂（かも） 憲倫（のりとし）(Kamo Noritoshi)\n別號：史上最邪惡的術師、御三家的污點\n髮色：黑髮\n瞳色：黑瞳\n萌點：傷疤、亡靈、大叔、血液操控\n出身地區：日本\n活動範圍：日本\n所屬團體：加茂家\n\n親屬或相關人\n同一人：偽夏油\n咒胎九相圖：脹相、壞相、血塗" }</t>
+  </si>
+  <si>
+    <t>豬野琢真</t>
+  </si>
+  <si>
+    <t>灰原雄</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://inews.gtimg.com/newsapp_bt/0/12910075026/641", "title": "灰原雄", "text": "二級咒術師。是七海同期的好友，為夏油的學弟，很崇拜學長夏油。非咒術師家族出身，家中只有妹妹和他相同可以看見咒靈，為不讓妹", "actions": [ { "type": "postback", "label": "基本資料", "text": "灰原雄的基本資料", "data": "name=灰原雄&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://www.bnacg.com/uploads/2101/1-21012G2330JQ.png", "title": "豬野琢真", "text": "二級咒術師。幫過一次七海的任務後，非常尊敬七海。頭戴編織帽，戰鬥時，會把帽子拉下來變成面具蒙面。後輩力很高、目標是成為一", "actions": [ { "type": "postback", "label": "基本資料", "text": "豬野琢真的基本資料", "data": "name=豬野琢真&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：猪野（いの） 琢真（たくま）(Ino Takuma)\n別號：豬野、豬野君、野豬哥\n髮色：棕髮\n瞳色：棕黑瞳\n年齡：21歲\n聲優：林勇\n萌點：學弟、毛線帽\n出身地區：日本\n活動範圍：日本\n所屬團體：自由職業咒術師\n\n親屬或相關人\n前輩：七海建人\n後輩：虎杖悠仁、伏黑惠" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：灰原（はいばら） （ゆう）(Haibara Yuu)\n別號：灰原、學弟\n髮色：黑髮\n瞳色：黑瞳\n年齡：17歲\n萌點：天然、元氣、學弟、妹妹頭、校服敞開、DK\n出身地區：日本\n活動範圍：日本\n所屬團體：東京都立咒術高等專門學校\n\n親屬或相關人\n同期：七海建人\n前輩：五條悟、夏油傑、家入硝子" }</t>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "基本資料\n本名：陀艮（だぶこん）(Dabukon)\n別號：水之咒靈、章魚\n瞳色：黑棕瞳\n萌點：亡靈、水能力、克蘇魯、變身\n活動範圍：日本\n所屬團體：咒靈（特級）\n\n親屬或相關人\n花御、漏瑚、真人、偽夏油" }</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://img.laughingbombclub.com/upload/666/905/8604674ffc00b9.jpg", "title": "血塗", "text": "特級咒物「咒胎九相圖（3號）」受肉而成的特級咒靈，三兄弟中的三弟。三兄弟中唯一不是人類外型，人臉下還有一張巨大的嘴巴。血", "actions": [ { "type": "postback", "label": "基本資料", "text": "血塗的基本資料", "data": "name=血塗&amp;action=info" } ] } }</t>
+  </si>
+  <si>
+    <t>{ "type": "template", "altText": "this is a buttons template", "template": { "type": "buttons", "thumbnailImageUrl": "https://img.52lishi.com/m00/26/d5/0a4c4a9dfd01afbc8a3cd0209f56fb9c.png", "title": "羂索", "text": "以夏油傑的身體活動著的詛咒師，真人等咒靈都以「夏油」稱呼他。在天元的解釋下表明其真身為千年前就已存在的詛咒師「羂索」，過", "actions": [ { "type": "postback", "label": "基本資料", "text": "羂索的基本資料", "data": "name=羂索&amp;action=info" } ] } }</t>
   </si>
 </sst>
 </file>
@@ -2000,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE72A2A6-7615-864F-B680-EBD9660FDC5F}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2036,7 +2178,7 @@
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -2132,10 +2274,10 @@
     </row>
     <row r="11" spans="1:7" ht="19">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>571</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>568</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2143,10 +2285,10 @@
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>570</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>569</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2154,10 +2296,10 @@
     </row>
     <row r="13" spans="1:7" ht="19">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2165,10 +2307,10 @@
     </row>
     <row r="14" spans="1:7" ht="19">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -2176,10 +2318,10 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2187,10 +2329,10 @@
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2198,10 +2340,10 @@
     </row>
     <row r="17" spans="1:7" ht="19">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -2209,10 +2351,10 @@
     </row>
     <row r="18" spans="1:7" ht="19">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -2220,10 +2362,10 @@
     </row>
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -2231,10 +2373,10 @@
     </row>
     <row r="20" spans="1:7" ht="19">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2242,10 +2384,10 @@
     </row>
     <row r="21" spans="1:7" ht="19">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -2253,10 +2395,10 @@
     </row>
     <row r="22" spans="1:7" ht="19">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -2264,10 +2406,10 @@
     </row>
     <row r="23" spans="1:7" ht="19">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -2275,10 +2417,10 @@
     </row>
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -2286,10 +2428,10 @@
     </row>
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -2297,10 +2439,10 @@
     </row>
     <row r="26" spans="1:7" ht="19">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>546</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -2308,10 +2450,10 @@
     </row>
     <row r="27" spans="1:7" ht="19">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>544</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>543</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -2319,10 +2461,10 @@
     </row>
     <row r="28" spans="1:7" ht="19">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>536</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -2330,10 +2472,10 @@
     </row>
     <row r="29" spans="1:7" ht="19">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>540</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2341,10 +2483,10 @@
     </row>
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -2352,175 +2494,175 @@
     </row>
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>566</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>565</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>530</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>575</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>532</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="19">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>576</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>550</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>553</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>552</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="19">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>557</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>556</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>558</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>559</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="19">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>561</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>560</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -2528,21 +2670,21 @@
     </row>
     <row r="47" spans="1:7" ht="19">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2550,21 +2692,21 @@
     </row>
     <row r="49" spans="1:7" ht="19">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="19">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -2572,21 +2714,21 @@
     </row>
     <row r="51" spans="1:7" ht="19">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="19">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -2594,32 +2736,32 @@
     </row>
     <row r="53" spans="1:7" ht="19">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="19">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>572</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>568</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="19">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>573</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>569</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -2627,10 +2769,10 @@
     </row>
     <row r="56" spans="1:7" ht="19">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -2638,10 +2780,10 @@
     </row>
     <row r="57" spans="1:7" ht="19">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -2649,10 +2791,10 @@
     </row>
     <row r="58" spans="1:7" ht="19">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2660,10 +2802,10 @@
     </row>
     <row r="59" spans="1:7" ht="19">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -2671,2462 +2813,2825 @@
     </row>
     <row r="60" spans="1:7" ht="19">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="19">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="19">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="19">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="19">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="19">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="19">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="19">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="19">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>548</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>546</v>
       </c>
       <c r="G69" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="19">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>545</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>543</v>
       </c>
       <c r="G70" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="19">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>537</v>
       </c>
       <c r="G71" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="19">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="G72" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="19">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="19">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>565</v>
       </c>
       <c r="G74" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="19">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="19">
       <c r="A76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="19">
       <c r="A77" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="19">
       <c r="A78" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="19">
       <c r="A79" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>574</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="19">
       <c r="A80" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="19">
       <c r="A81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="19">
       <c r="A82" s="1" t="s">
-        <v>130</v>
+        <v>535</v>
       </c>
       <c r="F82" t="s">
-        <v>330</v>
+        <v>532</v>
       </c>
       <c r="G82" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="19">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>551</v>
       </c>
       <c r="F83" t="s">
-        <v>331</v>
+        <v>550</v>
       </c>
       <c r="G83" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="19">
       <c r="A84" s="1" t="s">
-        <v>132</v>
+        <v>554</v>
       </c>
       <c r="F84" t="s">
-        <v>332</v>
+        <v>552</v>
       </c>
       <c r="G84" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="19">
       <c r="A85" s="1" t="s">
-        <v>133</v>
+        <v>562</v>
       </c>
       <c r="F85" t="s">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="G85" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="19">
       <c r="A86" s="1" t="s">
-        <v>134</v>
+        <v>563</v>
       </c>
       <c r="F86" t="s">
-        <v>334</v>
+        <v>559</v>
       </c>
       <c r="G86" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="19">
       <c r="A87" s="1" t="s">
-        <v>135</v>
+        <v>564</v>
       </c>
       <c r="F87" t="s">
-        <v>335</v>
+        <v>560</v>
       </c>
       <c r="G87" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="19">
       <c r="A88" s="1" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="19">
       <c r="A89" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="F89" t="s">
-        <v>337</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="19">
       <c r="A90" s="1" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="F90" t="s">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="19">
       <c r="A91" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="19">
       <c r="A92" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="F92" t="s">
-        <v>340</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="19">
       <c r="A93" s="1" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="F93" t="s">
-        <v>341</v>
+        <v>26</v>
       </c>
       <c r="G93" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="19">
       <c r="A94" s="1" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="19">
       <c r="A95" s="1" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="F95" t="s">
-        <v>343</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="19">
       <c r="A96" s="1" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="F96" t="s">
-        <v>344</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="19">
       <c r="A97" s="1" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="19">
       <c r="A98" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>346</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="19">
       <c r="A99" s="1" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
       <c r="F99" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="G99" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="19">
       <c r="A100" s="1" t="s">
-        <v>148</v>
+        <v>539</v>
       </c>
       <c r="F100" t="s">
-        <v>348</v>
+        <v>537</v>
       </c>
       <c r="G100" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="19">
       <c r="A101" s="1" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="F101" t="s">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="19">
       <c r="A102" s="1" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="19">
       <c r="A103" s="1" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="F103" t="s">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="19">
       <c r="A104" s="1" t="s">
-        <v>152</v>
+        <v>533</v>
       </c>
       <c r="F104" t="s">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="19">
       <c r="A105" s="1" t="s">
-        <v>153</v>
+        <v>534</v>
       </c>
       <c r="F105" t="s">
-        <v>353</v>
+        <v>531</v>
       </c>
       <c r="G105" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="19">
       <c r="A106" s="1" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="F106" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="19">
       <c r="A107" s="1" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>355</v>
+        <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="19">
       <c r="A108" s="1" t="s">
-        <v>156</v>
+        <v>555</v>
       </c>
       <c r="F108" t="s">
-        <v>356</v>
+        <v>552</v>
       </c>
       <c r="G108" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="19">
       <c r="A109" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F109" t="s">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="19">
       <c r="A110" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F110" t="s">
-        <v>358</v>
+        <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="19">
       <c r="A111" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F111" t="s">
-        <v>359</v>
+        <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="19">
       <c r="A112" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F112" t="s">
-        <v>360</v>
+        <v>26</v>
       </c>
       <c r="G112" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="19">
       <c r="A113" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="F113" t="s">
-        <v>361</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="19">
       <c r="A114" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F114" t="s">
-        <v>362</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="19">
       <c r="A115" s="1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="F115" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="G115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="19">
       <c r="A116" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F116" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="G116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="19">
       <c r="A117" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="F117" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="G117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="19">
       <c r="A118" s="1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="F118" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="G118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="19">
       <c r="A119" s="1" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F119" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="G119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="19">
       <c r="A120" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F120" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="G120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="19">
       <c r="A121" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F121" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="G121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="19">
       <c r="A122" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F122" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="G122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="19">
       <c r="A123" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="F123" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="G123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="19">
       <c r="A124" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F124" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="G124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="19">
       <c r="A125" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="F125" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="G125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="19">
       <c r="A126" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F126" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="G126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="19">
       <c r="A127" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F127" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="G127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="19">
       <c r="A128" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F128" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="G128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="19">
       <c r="A129" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F129" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="G129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="19">
       <c r="A130" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F130" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="G130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="19">
       <c r="A131" s="1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F131" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="19">
       <c r="A132" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F132" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="G132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="19">
       <c r="A133" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F133" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="G133" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="19">
       <c r="A134" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F134" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="G134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="19">
       <c r="A135" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F135" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="G135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="19">
       <c r="A136" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F136" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="G136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="19">
       <c r="A137" s="1" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F137" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="G137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="19">
       <c r="A138" s="1" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="F138" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="G138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="19">
       <c r="A139" s="1" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F139" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="G139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="19">
       <c r="A140" s="1" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="F140" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="G140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="19">
       <c r="A141" s="1" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F141" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="G141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="19">
       <c r="A142" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="F142" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="19">
       <c r="A143" s="1" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F143" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="G143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="19">
       <c r="A144" s="1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="F144" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="G144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="19">
       <c r="A145" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="F145" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="G145" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="19">
       <c r="A146" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="F146" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="G146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="19">
       <c r="A147" s="1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="F147" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="G147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="19">
       <c r="A148" s="1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F148" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="G148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="19">
       <c r="A149" s="1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="F149" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="G149" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="19">
       <c r="A150" s="1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F150" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="G150" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="19">
       <c r="A151" s="1" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="F151" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="G151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="19">
       <c r="A152" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="F152" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="G152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="19">
       <c r="A153" s="1" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="F153" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="G153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="19">
       <c r="A154" s="1" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="F154" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="G154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="19">
       <c r="A155" s="1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F155" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="G155" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="19">
       <c r="A156" s="1" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="F156" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="G156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="19">
       <c r="A157" s="1" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="F157" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="19">
       <c r="A158" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="F158" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="G158" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="19">
       <c r="A159" s="1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="F159" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="G159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="19">
       <c r="A160" s="1" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="F160" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="G160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="19">
       <c r="A161" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="F161" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="G161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="19">
       <c r="A162" s="1" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="F162" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="G162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="19">
       <c r="A163" s="1" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="F163" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="G163" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="19">
       <c r="A164" s="1" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="F164" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="G164" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="19">
       <c r="A165" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="F165" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="G165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="19">
       <c r="A166" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="F166" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="G166" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="19">
       <c r="A167" s="1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="F167" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="G167" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="19">
       <c r="A168" s="1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F168" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="G168" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="19">
       <c r="A169" s="1" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="F169" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="G169" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="19">
       <c r="A170" s="1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F170" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="G170" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="19">
       <c r="A171" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F171" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="G171" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="19">
       <c r="A172" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F172" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="G172" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="19">
       <c r="A173" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F173" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="G173" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="19">
       <c r="A174" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F174" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="G174" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="19">
       <c r="A175" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="F175" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="G175" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="19">
       <c r="A176" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F176" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="G176" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="19">
       <c r="A177" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F177" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="G177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="19">
       <c r="A178" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="F178" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G178" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="19">
       <c r="A179" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F179" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="G179" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="19">
       <c r="A180" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F180" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="G180" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="19">
       <c r="A181" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F181" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="G181" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="19">
       <c r="A182" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F182" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="G182" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="19">
       <c r="A183" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="F183" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="G183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="19">
       <c r="A184" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F184" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="G184" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="19">
       <c r="A185" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="F185" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="G185" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="19">
       <c r="A186" s="1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="F186" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="G186" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="19">
       <c r="A187" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="F187" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="G187" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="19">
       <c r="A188" s="1" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="F188" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="G188" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="19">
       <c r="A189" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F189" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="G189" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="19">
       <c r="A190" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F190" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="G190" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="19">
       <c r="A191" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F191" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="G191" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="19">
       <c r="A192" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F192" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="G192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="19">
       <c r="A193" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F193" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="G193" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="19">
       <c r="A194" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F194" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G194" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="19">
       <c r="A195" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="F195" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="G195" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="19">
       <c r="A196" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F196" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="G196" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="19">
       <c r="A197" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="F197" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="G197" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="19">
       <c r="A198" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F198" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="G198" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="19">
       <c r="A199" s="1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="F199" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="G199" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="19">
       <c r="A200" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="F200" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G200" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="19">
       <c r="A201" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="F201" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="G201" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="19">
       <c r="A202" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="F202" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="G202" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="19">
       <c r="A203" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="F203" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="G203" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="19">
       <c r="A204" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="F204" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="G204" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="19">
       <c r="A205" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="F205" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="G205" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="19">
       <c r="A206" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="F206" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="G206" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="19">
       <c r="A207" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F207" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="G207" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="19">
       <c r="A208" s="1" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F208" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="G208" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="19">
       <c r="A209" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="F209" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="G209" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="19">
       <c r="A210" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="F210" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="G210" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="19">
       <c r="A211" s="1" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="F211" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="G211" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="19">
       <c r="A212" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="F212" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="G212" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="19">
       <c r="A213" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="F213" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="G213" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="19">
       <c r="A214" s="1" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="F214" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="G214" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="19">
       <c r="A215" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F215" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="G215" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="19">
       <c r="A216" s="1" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="F216" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="G216" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="19">
       <c r="A217" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="F217" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="G217" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="19">
       <c r="A218" s="1" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="F218" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="G218" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="19">
       <c r="A219" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F219" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="G219" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="19">
       <c r="A220" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="F220" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="G220" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="19">
       <c r="A221" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F221" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="G221" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="19">
       <c r="A222" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F222" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="G222" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="19">
       <c r="A223" s="1" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="F223" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="G223" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="19">
       <c r="A224" s="1" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F224" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="G224" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="19">
       <c r="A225" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="F225" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="G225" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="19">
       <c r="A226" s="1" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="F226" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="G226" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="19">
       <c r="A227" s="1" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="F227" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="G227" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="19">
       <c r="A228" s="1" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="F228" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="G228" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="19">
       <c r="A229" s="1" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="F229" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="G229" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="19">
       <c r="A230" s="1" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="F230" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="G230" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="19">
       <c r="A231" s="1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="F231" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="G231" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="19">
       <c r="A232" s="1" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="F232" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="G232" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="19">
       <c r="A233" s="1" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F233" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="G233" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="19">
       <c r="A234" s="1" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="F234" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="G234" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="19">
       <c r="A235" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="F235" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="G235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="19">
       <c r="A236" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="F236" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="G236" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="19">
       <c r="A237" s="1" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="F237" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="G237" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="19">
       <c r="A238" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="F238" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="G238" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="19">
       <c r="A239" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="F239" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="G239" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="19">
       <c r="A240" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="F240" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="G240" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="19">
       <c r="A241" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="F241" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="G241" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="19">
       <c r="A242" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="F242" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="G242" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="19">
       <c r="A243" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="F243" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="G243" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="19">
       <c r="A244" s="1" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="F244" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="G244" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="19">
       <c r="A245" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F245" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="G245" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="19">
       <c r="A246" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="F246" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="G246" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="19">
       <c r="A247" s="1" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="F247" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G247" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="19">
       <c r="A248" s="1" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="F248" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="G248" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="19">
       <c r="A249" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F249" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="G249" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="19">
       <c r="A250" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="G250" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="19">
       <c r="A251" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F251" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="G251" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="19">
       <c r="A252" s="1" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="G252" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="19">
       <c r="A253" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="F253" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="G253" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="19">
       <c r="A254" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="G254" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="19">
       <c r="A255" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="F255" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="G255" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="19">
       <c r="A256" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="G256" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="19">
       <c r="A257" s="1" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="F257" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="G257" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="19">
       <c r="A258" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="G258" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="19">
       <c r="A259" s="1" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="F259" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="G259" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="19">
       <c r="A260" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="G260" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="19">
       <c r="A261" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="F261" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="G261" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="19">
       <c r="A262" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="G262" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="19">
       <c r="A263" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F263" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="G263" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="19">
       <c r="A264" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="G264" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="19">
       <c r="A265" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="F265" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="G265" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="19">
       <c r="A266" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="G266" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="19">
       <c r="A267" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="F267" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="G267" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="19">
       <c r="A268" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="G268" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="19">
       <c r="A269" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="F269" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="G269" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="19">
       <c r="A270" s="1" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="G270" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="19">
       <c r="A271" s="1" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="F271" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="G271" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="19">
       <c r="A272" s="1" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="G272" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="19">
       <c r="A273" s="1" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="F273" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="G273" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="19">
       <c r="A274" s="1" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="G274" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="19">
       <c r="A275" s="1" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="F275" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="G275" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="19">
       <c r="A276" s="1" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F276" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="G276" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="19">
       <c r="A277" s="1" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="F277" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="G277" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="19">
       <c r="A278" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="G278" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="19">
       <c r="A279" s="1" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="F279" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="G279" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="19">
       <c r="A280" s="1" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G280" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="19">
       <c r="A281" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F281" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="G281" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="19">
+      <c r="A282" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F282" t="s">
+        <v>496</v>
+      </c>
+      <c r="G282" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="19">
+      <c r="A283" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F283" t="s">
+        <v>497</v>
+      </c>
+      <c r="G283" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="19">
+      <c r="A284" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F284" t="s">
+        <v>498</v>
+      </c>
+      <c r="G284" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="19">
+      <c r="A285" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F285" t="s">
+        <v>499</v>
+      </c>
+      <c r="G285" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="19">
+      <c r="A286" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F286" t="s">
+        <v>500</v>
+      </c>
+      <c r="G286" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="19">
+      <c r="A287" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F287" t="s">
+        <v>501</v>
+      </c>
+      <c r="G287" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="19">
+      <c r="A288" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F288" t="s">
+        <v>502</v>
+      </c>
+      <c r="G288" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="19">
+      <c r="A289" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F289" t="s">
+        <v>503</v>
+      </c>
+      <c r="G289" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="19">
+      <c r="A290" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F290" t="s">
+        <v>504</v>
+      </c>
+      <c r="G290" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="19">
+      <c r="A291" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F291" t="s">
+        <v>505</v>
+      </c>
+      <c r="G291" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="19">
+      <c r="A292" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F292" t="s">
+        <v>506</v>
+      </c>
+      <c r="G292" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="19">
+      <c r="A293" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F293" t="s">
+        <v>507</v>
+      </c>
+      <c r="G293" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="19">
+      <c r="A294" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F294" t="s">
+        <v>508</v>
+      </c>
+      <c r="G294" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="19">
+      <c r="A295" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F295" t="s">
+        <v>509</v>
+      </c>
+      <c r="G295" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="19">
+      <c r="A296" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F296" t="s">
+        <v>510</v>
+      </c>
+      <c r="G296" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="19">
+      <c r="A297" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F297" t="s">
+        <v>511</v>
+      </c>
+      <c r="G297" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="19">
+      <c r="A298" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F298" t="s">
+        <v>512</v>
+      </c>
+      <c r="G298" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="19">
+      <c r="A299" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F299" t="s">
+        <v>513</v>
+      </c>
+      <c r="G299" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="19">
+      <c r="A300" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F300" t="s">
+        <v>514</v>
+      </c>
+      <c r="G300" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="19">
+      <c r="A301" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F301" t="s">
+        <v>515</v>
+      </c>
+      <c r="G301" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="19">
+      <c r="A302" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F302" t="s">
+        <v>516</v>
+      </c>
+      <c r="G302" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="19">
+      <c r="A303" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F303" t="s">
+        <v>517</v>
+      </c>
+      <c r="G303" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="19">
+      <c r="A304" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F304" t="s">
+        <v>518</v>
+      </c>
+      <c r="G304" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="19">
+      <c r="A305" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F305" t="s">
+        <v>519</v>
+      </c>
+      <c r="G305" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="19">
+      <c r="A306" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F306" t="s">
+        <v>520</v>
+      </c>
+      <c r="G306" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="19">
+      <c r="A307" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F307" t="s">
+        <v>521</v>
+      </c>
+      <c r="G307" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="19">
+      <c r="A308" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F308" t="s">
+        <v>522</v>
+      </c>
+      <c r="G308" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="19">
+      <c r="A309" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F309" t="s">
+        <v>523</v>
+      </c>
+      <c r="G309" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="19">
+      <c r="A310" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F310" t="s">
+        <v>524</v>
+      </c>
+      <c r="G310" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="19">
+      <c r="A311" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F311" t="s">
+        <v>525</v>
+      </c>
+      <c r="G311" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="19">
+      <c r="A312" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F312" t="s">
+        <v>526</v>
+      </c>
+      <c r="G312" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="19">
+      <c r="A313" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F313" t="s">
+        <v>527</v>
+      </c>
+      <c r="G313" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="19">
+      <c r="A314" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F314" t="s">
+        <v>528</v>
+      </c>
+      <c r="G314" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
